--- a/public/import/DAILY MARSUDI.xlsx
+++ b/public/import/DAILY MARSUDI.xlsx
@@ -81,22 +81,22 @@
     <t>ABSEN TALENTA PULANG DAN REPORT CEKLIS DND</t>
   </si>
   <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>2023-09-23</t>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
